--- a/data/20200924_wrightii.xlsx
+++ b/data/20200924_wrightii.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Scutellaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\scutellariaMetabolites\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C892B98-BCB6-46A0-BD64-F6141EABF28B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>injectionName</t>
   </si>
@@ -59,12 +60,6 @@
     <t>apigeninG</t>
   </si>
   <si>
-    <t>scutalarin</t>
-  </si>
-  <si>
-    <t>scutalarein</t>
-  </si>
-  <si>
     <t>chrysinG</t>
   </si>
   <si>
@@ -158,13 +153,16 @@
     <t>mix15</t>
   </si>
   <si>
-    <t>n.a.</t>
+    <t>scutellarin</t>
+  </si>
+  <si>
+    <t>scutellarein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,11 +473,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,224 +517,224 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>3.2099999999999997E-2</v>
@@ -762,31 +760,31 @@
       <c r="I6">
         <v>0.17979999999999999</v>
       </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.1673</v>
@@ -812,31 +810,31 @@
       <c r="I7">
         <v>0.88570000000000004</v>
       </c>
-      <c r="J7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" t="s">
-        <v>44</v>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>0.26500000000000001</v>
@@ -862,31 +860,31 @@
       <c r="I8">
         <v>1.8362000000000001</v>
       </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>1.0009999999999999</v>
@@ -912,31 +910,31 @@
       <c r="I9">
         <v>8.0338999999999992</v>
       </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" t="s">
-        <v>44</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>2.1745999999999999</v>
@@ -962,31 +960,31 @@
       <c r="I10">
         <v>16.89</v>
       </c>
-      <c r="J10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" t="s">
-        <v>44</v>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>5.3878000000000004</v>
@@ -1012,31 +1010,31 @@
       <c r="I11">
         <v>42.938699999999997</v>
       </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" t="s">
-        <v>44</v>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>11.932600000000001</v>
@@ -1062,31 +1060,31 @@
       <c r="I12">
         <v>95.281400000000005</v>
       </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" t="s">
-        <v>44</v>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>21.291699999999999</v>
@@ -1112,105 +1110,105 @@
       <c r="I13">
         <v>168.6515</v>
       </c>
-      <c r="J13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P13" t="s">
-        <v>44</v>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2.0299999999999999E-2</v>
@@ -1236,31 +1234,31 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16">
         <v>9.7100000000000006E-2</v>
@@ -1286,31 +1284,31 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
         <v>7.1199999999999999E-2</v>
@@ -1336,31 +1334,31 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0.40770000000000001</v>
@@ -1386,31 +1384,31 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1.6726000000000001</v>
@@ -1436,31 +1434,31 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20">
         <v>3.4929000000000001</v>
@@ -1486,31 +1484,31 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
         <v>9.0767000000000007</v>
@@ -1536,31 +1534,31 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22">
         <v>18.867899999999999</v>
@@ -1586,60 +1584,60 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.14369999999999999</v>
-      </c>
-      <c r="N23" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="P23" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24">
         <v>24.247199999999999</v>
@@ -1647,8 +1645,8 @@
       <c r="D24">
         <v>0.87590000000000001</v>
       </c>
-      <c r="E24" t="s">
-        <v>44</v>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0.12089999999999999</v>
@@ -1656,23 +1654,23 @@
       <c r="G24">
         <v>18.030100000000001</v>
       </c>
-      <c r="H24" t="s">
-        <v>44</v>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1.1693</v>
       </c>
-      <c r="J24" t="s">
-        <v>44</v>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0.2545</v>
       </c>
-      <c r="L24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M24" t="s">
-        <v>44</v>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
       </c>
       <c r="N24">
         <v>1.5941000000000001</v>
@@ -1686,10 +1684,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25">
         <v>26.988199999999999</v>
@@ -1697,8 +1695,8 @@
       <c r="D25">
         <v>0.9123</v>
       </c>
-      <c r="E25" t="s">
-        <v>44</v>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0.15240000000000001</v>
@@ -1706,23 +1704,23 @@
       <c r="G25">
         <v>32.665900000000001</v>
       </c>
-      <c r="H25" t="s">
-        <v>44</v>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1.476</v>
       </c>
-      <c r="J25" t="s">
-        <v>44</v>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0.26750000000000002</v>
       </c>
-      <c r="L25" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" t="s">
-        <v>44</v>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25">
         <v>1.7816000000000001</v>
@@ -1736,10 +1734,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26">
         <v>21.8002</v>
@@ -1747,8 +1745,8 @@
       <c r="D26">
         <v>0.42599999999999999</v>
       </c>
-      <c r="E26" t="s">
-        <v>44</v>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0.21029999999999999</v>
@@ -1756,23 +1754,23 @@
       <c r="G26">
         <v>13.869400000000001</v>
       </c>
-      <c r="H26" t="s">
-        <v>44</v>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0.74760000000000004</v>
       </c>
-      <c r="J26" t="s">
-        <v>44</v>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0.17510000000000001</v>
       </c>
-      <c r="L26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" t="s">
-        <v>44</v>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26">
         <v>1.7523</v>
@@ -1786,10 +1784,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="C27">
         <v>4.9560000000000004</v>
@@ -1800,46 +1798,46 @@
       <c r="E27">
         <v>0.30220000000000002</v>
       </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0.27960000000000002</v>
       </c>
-      <c r="J27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" t="s">
-        <v>44</v>
-      </c>
-      <c r="P27" t="s">
-        <v>44</v>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
       </c>
       <c r="C28">
         <v>53.9587</v>
@@ -1850,8 +1848,8 @@
       <c r="E28">
         <v>0.71730000000000005</v>
       </c>
-      <c r="F28" t="s">
-        <v>44</v>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1.1984999999999999</v>
@@ -1862,20 +1860,20 @@
       <c r="I28">
         <v>1.1180000000000001</v>
       </c>
-      <c r="J28" t="s">
-        <v>44</v>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0.1258</v>
       </c>
-      <c r="L28" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" t="s">
-        <v>44</v>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0.81630000000000003</v>
@@ -1886,10 +1884,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
       </c>
       <c r="C29">
         <v>29.4282</v>
@@ -1900,46 +1898,46 @@
       <c r="E29">
         <v>0.56369999999999998</v>
       </c>
-      <c r="F29" t="s">
-        <v>44</v>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0.34539999999999998</v>
       </c>
-      <c r="H29" t="s">
-        <v>44</v>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0.66590000000000005</v>
       </c>
-      <c r="J29" t="s">
-        <v>44</v>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0.1135</v>
       </c>
-      <c r="L29" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" t="s">
-        <v>44</v>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
       </c>
       <c r="O29">
         <v>0.39200000000000002</v>
       </c>
-      <c r="P29" t="s">
-        <v>44</v>
+      <c r="P29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
       </c>
       <c r="C30">
         <v>184.93</v>
@@ -1950,8 +1948,8 @@
       <c r="E30">
         <v>15.553100000000001</v>
       </c>
-      <c r="F30" t="s">
-        <v>44</v>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30">
         <v>15.8162</v>
@@ -1962,34 +1960,34 @@
       <c r="I30">
         <v>0.53480000000000005</v>
       </c>
-      <c r="J30" t="s">
-        <v>44</v>
-      </c>
-      <c r="K30" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N30" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" t="s">
-        <v>44</v>
-      </c>
-      <c r="P30" t="s">
-        <v>44</v>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
       </c>
       <c r="C31">
         <v>146.81120000000001</v>
@@ -2000,8 +1998,8 @@
       <c r="E31">
         <v>8.1405999999999992</v>
       </c>
-      <c r="F31" t="s">
-        <v>44</v>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
         <v>7.8977000000000004</v>
@@ -2012,34 +2010,34 @@
       <c r="I31">
         <v>0.53359999999999996</v>
       </c>
-      <c r="J31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" t="s">
-        <v>44</v>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
       </c>
       <c r="C32">
         <v>117.3952</v>
@@ -2050,8 +2048,8 @@
       <c r="E32">
         <v>4.8470000000000004</v>
       </c>
-      <c r="F32" t="s">
-        <v>44</v>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32">
         <v>14.789899999999999</v>
@@ -2062,31 +2060,31 @@
       <c r="I32">
         <v>1.1337999999999999</v>
       </c>
-      <c r="J32" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" t="s">
-        <v>44</v>
-      </c>
-      <c r="M32" t="s">
-        <v>44</v>
-      </c>
-      <c r="N32" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" t="s">
-        <v>44</v>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>3.0823</v>
@@ -2136,102 +2134,102 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" t="s">
-        <v>44</v>
-      </c>
-      <c r="P34" t="s">
-        <v>44</v>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" t="s">
-        <v>44</v>
-      </c>
-      <c r="O35" t="s">
-        <v>44</v>
-      </c>
-      <c r="P35" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
